--- a/Data/Ablation study/HGLMA_1D-2Dweight_proportions.xlsx
+++ b/Data/Ablation study/HGLMA_1D-2Dweight_proportions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11730"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="weight_proportions" sheetId="1" r:id="rId1"/>
@@ -1370,27 +1370,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1517,7 +1502,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1529,34 +1514,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,19 +1636,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2208,8 +2190,8 @@
   <sheetPr/>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2233,1301 +2215,1193 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4">
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4">
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4">
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4">
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4">
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4">
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4">
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4">
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4">
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4">
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4">
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4">
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4">
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4">
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4">
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4">
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4">
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C109">
